--- a/biology/Médecine/Infection_ostéoarticulaire/Infection_ostéoarticulaire.xlsx
+++ b/biology/Médecine/Infection_ostéoarticulaire/Infection_ostéoarticulaire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Infection_ost%C3%A9oarticulaire</t>
+          <t>Infection_ostéoarticulaire</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La notion d' infection ostéoarticulaire recouvre diverses pathologies touchant à la fois l'os et l'articulation, induisant des troubles musculosquelettiques.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Infection_ost%C3%A9oarticulaire</t>
+          <t>Infection_ostéoarticulaire</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Définition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>On parle d'infection ostéoarticulaire quand au moins deux des conditions suivantes sont associées
 Signes inflammatoires (locaux et/ou systémiques)
@@ -530,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Infection_ost%C3%A9oarticulaire</t>
+          <t>Infection_ostéoarticulaire</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,7 +562,9 @@
           <t>Étiologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>rhumatisme
 surmenage
@@ -573,7 +589,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Infection_ost%C3%A9oarticulaire</t>
+          <t>Infection_ostéoarticulaire</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -591,7 +607,9 @@
           <t>Diagnostic</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Douleur permanente, ou provoquée à la palpation ou à la mise en tension du muscle ou lors de certaines sollicitations de l'articulation.
 Sensation d'accrochage douloureux lors des mouvements mettant en jeu le tendon
@@ -605,7 +623,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Infection_ost%C3%A9oarticulaire</t>
+          <t>Infection_ostéoarticulaire</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -623,7 +641,9 @@
           <t>Traitement</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Ils varient selon la cause et la gravité du problème avec par exemple :
 repos ou immobilisation par contention (traitement orthopédique) (toujours indispensable) ;
@@ -632,7 +652,7 @@
 infiltrations cortisoniques ;
 kinésithérapie, dont le traitement par ondes de choc radiales dérivé de la lithotripsie extracorporelle;
 antibiothérapie;
-phagothérapie en cas de germes multi-résistants (ATUn nécessaire[1]).
+phagothérapie en cas de germes multi-résistants (ATUn nécessaire).
 Méthodes n'ayant pas fait la preuve empirique de leur efficacité :
 chiropratique ;
 phytothérapie (prêle, Harpagophytum procumbens)
